--- a/data/hf_rets.xlsx
+++ b/data/hf_rets.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamaiken/fin-data-analysis-python/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00D46529-4892-554A-9080-B7099106D3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6007047C-4016-C247-8419-9D5BC29B3B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11980" yWindow="5900" windowWidth="27640" windowHeight="16940" xr2:uid="{DA9AA4A0-DD38-634C-A16F-13C689493B33}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="rets" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029" iterate="1"/>
   <extLst>
@@ -517,7 +517,7 @@
   <dimension ref="A1:P223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
